--- a/biology/Botanique/Begonia_gracilis/Begonia_gracilis.xlsx
+++ b/biology/Botanique/Begonia_gracilis/Begonia_gracilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia gracilis est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire d'Amérique centrale. L'espèce fait partie de la section Quadriperigonia. Elle a été décrite en 1825 par Karl Sigismund Kunth (1788-1850). L'épithète spécifique gracilis signifie « gracieux, fin »[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia gracilis est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire d'Amérique centrale. L'espèce fait partie de la section Quadriperigonia. Elle a été décrite en 1825 par Karl Sigismund Kunth (1788-1850). L'épithète spécifique gracilis signifie « gracieux, fin ».
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente au Mexique[3] en Aguascalientes, au Chiapas, dans le Chihuahua, au Colima, à Mexico, dans le Durango, au Guanajuato, en Hidalgo, dans le Jalisco, dans l'Etat de Mexico, au Michoacan, dans le Morelos, au Nayararit, dans l'Etat de Puebla, au Quintana Roo, au San Luis Potosí, au Sinaloa, au Sonora, au Tamaulipas, dans l'Etat de Tlaxcala, au Veracruz et dans le Zacatecas[4] ; et en Amérique Centrale au Guatemala[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente au Mexique en Aguascalientes, au Chiapas, dans le Chihuahua, au Colima, à Mexico, dans le Durango, au Guanajuato, en Hidalgo, dans le Jalisco, dans l'Etat de Mexico, au Michoacan, dans le Morelos, au Nayararit, dans l'Etat de Puebla, au Quintana Roo, au San Luis Potosí, au Sinaloa, au Sonora, au Tamaulipas, dans l'Etat de Tlaxcala, au Veracruz et dans le Zacatecas ; et en Amérique Centrale au Guatemala.
 </t>
         </is>
       </c>
@@ -568,9 +584,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (6 février 2017)[5] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (6 février 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Begonia gracilis var. annulata A. DC.
 variété Begonia gracilis var. depauperata A. DC.
 variété Begonia gracilis var. diversifolia (Graham) A. DC.
